--- a/014_In_JSON_Extraction_And_Update_In_Excel_Using_Reframework/014_In_Data/Config.xlsx
+++ b/014_In_JSON_Extraction_And_Update_In_Excel_Using_Reframework/014_In_Data/Config.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rathina.krithika\Desktop\Uipath Repo\JSON_Snippets_Tasks\014_In_JSON_Extraction_And_Update_In_Excel_Using_Reframework\014_In_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB1F21A3-50BE-4EA6-9584-D28BBF81A1E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{157A7252-F5CD-4D7E-9C65-1A7A9A198C22}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -179,9 +179,6 @@
     <t>014_Out_Result_file</t>
   </si>
   <si>
-    <t>C:\Users\rathina.krithika\Desktop\Uipath Repo\JSON_Snippets_Tasks\014_In_JSON_Extraction_And_Update_In_Excel_Using_Reframework\014_In_Data\Output\Final_Report.xlsx</t>
-  </si>
-  <si>
     <t>Success_Mail_To</t>
   </si>
   <si>
@@ -201,6 +198,9 @@
 Please find the final report of success/failure status about all MRPcontrollers.
 Thanks,
 ROBOT</t>
+  </si>
+  <si>
+    <t>C:\Users\rathina.krithika\Desktop\Uipath Repo\JSON_Snippets_Tasks\014_In_JSON_Extraction_And_Update_In_Excel_Using_Reframework\014_In_Data\Output\Final_Report_Timestamp.xlsx</t>
   </si>
 </sst>
 </file>
@@ -600,7 +600,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z997"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
@@ -694,7 +694,7 @@
         <v>48</v>
       </c>
       <c r="B11" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1"/>
@@ -772,7 +772,7 @@
     <row r="28" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="29" spans="1:2" ht="14.25" customHeight="1">
       <c r="A29" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>31</v>
@@ -780,7 +780,7 @@
     </row>
     <row r="30" spans="1:2" ht="14.25" customHeight="1">
       <c r="A30" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>32</v>
@@ -788,18 +788,18 @@
     </row>
     <row r="31" spans="1:2" ht="14.25" customHeight="1">
       <c r="A31" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B31" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="14.25" customHeight="1">
       <c r="A32" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="33" ht="14.25" customHeight="1"/>
